--- a/Bilan_paris_Sportifs.xlsx
+++ b/Bilan_paris_Sportifs.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dflouriot/R/Paris_Sportifs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F00FC61C-1833-C146-AC7B-23679C92E437}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{93A7BCDC-E06F-3E40-AA19-C122D39A6112}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="480" yWindow="960" windowWidth="25040" windowHeight="14160" activeTab="1" xr2:uid="{3E6C84DC-2DA0-044F-9C42-0FDC8BCE9064}"/>
   </bookViews>
@@ -21,7 +21,7 @@
   </definedNames>
   <calcPr calcId="181029"/>
   <pivotCaches>
-    <pivotCache cacheId="20" r:id="rId3"/>
+    <pivotCache cacheId="26" r:id="rId3"/>
   </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -1051,14 +1051,1800 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="fr-FR"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="fr-FR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Base!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Gain cumulé</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Base!$S$2:$S$310</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="309"/>
+                <c:pt idx="0">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>-10</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>-4.6500000000000004</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>-0.40000000000000036</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10.35</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>11.75</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>12.85</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>7.85</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>5.85</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>3.8499999999999996</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.9999999999999996</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>-3.0000000000000004</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>-5</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>-7</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>-5.6</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>-4.3999999999999995</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>-2.9599999999999995</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>-4.9599999999999991</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>-3.4599999999999991</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>-1.1599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>-3.1599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>-5.1599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>-6.1599999999999993</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>-8.16</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>-10.16</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>-7.4</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>-9.4</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>-10.4</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>-9.4600000000000009</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>-11.46</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>-10.88</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>-9.3600000000000012</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>-7.160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>-9.16</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>-11.16</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>-13.16</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>-9.26</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>-11.26</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>-13.26</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>-15.26</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>-17.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>-22.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>-24.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>-19.259999999999998</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>-14.759999999999998</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>-8.3099999999999987</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>-10.309999999999999</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>-8.27</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>-10.27</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>-12.27</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>-9.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>-11.469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>-7.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>-9.4699999999999989</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>-11.469999999999999</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>-16.47</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>-19.47</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>-22.47</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>-18.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>-15.769999999999998</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>-17.769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>-13.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>-15.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>-20.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>-21.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>-22.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>-24.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>-34.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>-30.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>-19.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>-13.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>-18.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>-23.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>-28.569999999999997</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>-33.569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>-30.869999999999994</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>-31.269999999999992</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>-36.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>-36.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>-29.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>-23.47</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>-28.47</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>-33.47</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>-27.97</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>-17.169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>-22.169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>-27.169999999999998</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>-32.17</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>-37.17</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>-47.35</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>-41.6</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>-46.6</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>-19.600000000000001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>-26.330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>-27.330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>-28.330000000000002</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>-20.830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="100">
+                  <c:v>-13.830000000000002</c:v>
+                </c:pt>
+                <c:pt idx="101">
+                  <c:v>-4.0800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="102">
+                  <c:v>2.4199999999999982</c:v>
+                </c:pt>
+                <c:pt idx="103">
+                  <c:v>-2.5800000000000018</c:v>
+                </c:pt>
+                <c:pt idx="104">
+                  <c:v>-12.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="105">
+                  <c:v>-22.580000000000002</c:v>
+                </c:pt>
+                <c:pt idx="106">
+                  <c:v>-32.58</c:v>
+                </c:pt>
+                <c:pt idx="107">
+                  <c:v>-37.58</c:v>
+                </c:pt>
+                <c:pt idx="108">
+                  <c:v>-30.88</c:v>
+                </c:pt>
+                <c:pt idx="109">
+                  <c:v>-35.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="110">
+                  <c:v>-37.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="111">
+                  <c:v>-42.879999999999995</c:v>
+                </c:pt>
+                <c:pt idx="112">
+                  <c:v>-44.08</c:v>
+                </c:pt>
+                <c:pt idx="113">
+                  <c:v>-37.58</c:v>
+                </c:pt>
+                <c:pt idx="114">
+                  <c:v>-42.58</c:v>
+                </c:pt>
+                <c:pt idx="115">
+                  <c:v>-37.58</c:v>
+                </c:pt>
+                <c:pt idx="116">
+                  <c:v>-32.58</c:v>
+                </c:pt>
+                <c:pt idx="117">
+                  <c:v>-42.58</c:v>
+                </c:pt>
+                <c:pt idx="118">
+                  <c:v>-44.08</c:v>
+                </c:pt>
+                <c:pt idx="119">
+                  <c:v>-35.58</c:v>
+                </c:pt>
+                <c:pt idx="120">
+                  <c:v>-41.57</c:v>
+                </c:pt>
+                <c:pt idx="121">
+                  <c:v>-35.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="122">
+                  <c:v>-29.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="123">
+                  <c:v>-19.369999999999997</c:v>
+                </c:pt>
+                <c:pt idx="124">
+                  <c:v>-24.15</c:v>
+                </c:pt>
+                <c:pt idx="125">
+                  <c:v>-18.899999999999999</c:v>
+                </c:pt>
+                <c:pt idx="126">
+                  <c:v>-15.249999999999998</c:v>
+                </c:pt>
+                <c:pt idx="127">
+                  <c:v>-15.429999999999998</c:v>
+                </c:pt>
+                <c:pt idx="128">
+                  <c:v>-11.679999999999998</c:v>
+                </c:pt>
+                <c:pt idx="129">
+                  <c:v>-16.68</c:v>
+                </c:pt>
+                <c:pt idx="130">
+                  <c:v>-21.68</c:v>
+                </c:pt>
+                <c:pt idx="131">
+                  <c:v>-26.68</c:v>
+                </c:pt>
+                <c:pt idx="132">
+                  <c:v>-31.68</c:v>
+                </c:pt>
+                <c:pt idx="133">
+                  <c:v>-32.68</c:v>
+                </c:pt>
+                <c:pt idx="134">
+                  <c:v>-33.68</c:v>
+                </c:pt>
+                <c:pt idx="135">
+                  <c:v>-30.48</c:v>
+                </c:pt>
+                <c:pt idx="136">
+                  <c:v>-32.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="137">
+                  <c:v>-24.480000000000004</c:v>
+                </c:pt>
+                <c:pt idx="138">
+                  <c:v>-15.230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="139">
+                  <c:v>-10.830000000000004</c:v>
+                </c:pt>
+                <c:pt idx="140">
+                  <c:v>-7.8300000000000036</c:v>
+                </c:pt>
+                <c:pt idx="141">
+                  <c:v>-2.3300000000000036</c:v>
+                </c:pt>
+                <c:pt idx="142">
+                  <c:v>-7.3300000000000036</c:v>
+                </c:pt>
+                <c:pt idx="143">
+                  <c:v>-2.5800000000000036</c:v>
+                </c:pt>
+                <c:pt idx="144">
+                  <c:v>-4.5800000000000036</c:v>
+                </c:pt>
+                <c:pt idx="145">
+                  <c:v>-4.5800000000000036</c:v>
+                </c:pt>
+                <c:pt idx="146">
+                  <c:v>0.76999999999999602</c:v>
+                </c:pt>
+                <c:pt idx="147">
+                  <c:v>5.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="148">
+                  <c:v>5.269999999999996</c:v>
+                </c:pt>
+                <c:pt idx="149">
+                  <c:v>0.26999999999999602</c:v>
+                </c:pt>
+                <c:pt idx="150">
+                  <c:v>-4.730000000000004</c:v>
+                </c:pt>
+                <c:pt idx="151">
+                  <c:v>-0.3300000000000054</c:v>
+                </c:pt>
+                <c:pt idx="152">
+                  <c:v>2.769999999999996</c:v>
+                </c:pt>
+                <c:pt idx="153">
+                  <c:v>-2.230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="154">
+                  <c:v>-7.230000000000004</c:v>
+                </c:pt>
+                <c:pt idx="155">
+                  <c:v>-1.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="156">
+                  <c:v>-6.203000000000003</c:v>
+                </c:pt>
+                <c:pt idx="157">
+                  <c:v>-2.703000000000003</c:v>
+                </c:pt>
+                <c:pt idx="158">
+                  <c:v>2.546999999999997</c:v>
+                </c:pt>
+                <c:pt idx="159">
+                  <c:v>-2.453000000000003</c:v>
+                </c:pt>
+                <c:pt idx="160">
+                  <c:v>3.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="161">
+                  <c:v>1.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="162">
+                  <c:v>4.8069999999999968</c:v>
+                </c:pt>
+                <c:pt idx="163">
+                  <c:v>8.6569999999999965</c:v>
+                </c:pt>
+                <c:pt idx="164">
+                  <c:v>6.1569999999999965</c:v>
+                </c:pt>
+                <c:pt idx="165">
+                  <c:v>6.1569999999999965</c:v>
+                </c:pt>
+                <c:pt idx="166">
+                  <c:v>1.1569999999999965</c:v>
+                </c:pt>
+                <c:pt idx="167">
+                  <c:v>4.7569999999999961</c:v>
+                </c:pt>
+                <c:pt idx="168">
+                  <c:v>9.9569999999999954</c:v>
+                </c:pt>
+                <c:pt idx="169">
+                  <c:v>13.356999999999996</c:v>
+                </c:pt>
+                <c:pt idx="170">
+                  <c:v>12.356999999999996</c:v>
+                </c:pt>
+                <c:pt idx="171">
+                  <c:v>11.356999999999996</c:v>
+                </c:pt>
+                <c:pt idx="172">
+                  <c:v>6.3569999999999958</c:v>
+                </c:pt>
+                <c:pt idx="173">
+                  <c:v>11.706999999999995</c:v>
+                </c:pt>
+                <c:pt idx="174">
+                  <c:v>6.7069999999999954</c:v>
+                </c:pt>
+                <c:pt idx="175">
+                  <c:v>6.7069999999999954</c:v>
+                </c:pt>
+                <c:pt idx="176">
+                  <c:v>12.806999999999997</c:v>
+                </c:pt>
+                <c:pt idx="177">
+                  <c:v>7.8069999999999968</c:v>
+                </c:pt>
+                <c:pt idx="178">
+                  <c:v>15.106999999999998</c:v>
+                </c:pt>
+                <c:pt idx="179">
+                  <c:v>13.106999999999998</c:v>
+                </c:pt>
+                <c:pt idx="180">
+                  <c:v>19.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="181">
+                  <c:v>14.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="182">
+                  <c:v>9.8569999999999993</c:v>
+                </c:pt>
+                <c:pt idx="183">
+                  <c:v>17.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="184">
+                  <c:v>12.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="185">
+                  <c:v>17.106999999999999</c:v>
+                </c:pt>
+                <c:pt idx="186">
+                  <c:v>23.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="187">
+                  <c:v>26.756999999999998</c:v>
+                </c:pt>
+                <c:pt idx="188">
+                  <c:v>32.506999999999998</c:v>
+                </c:pt>
+                <c:pt idx="189">
+                  <c:v>27.506999999999998</c:v>
+                </c:pt>
+                <c:pt idx="190">
+                  <c:v>22.506999999999998</c:v>
+                </c:pt>
+                <c:pt idx="191">
+                  <c:v>17.506999999999998</c:v>
+                </c:pt>
+                <c:pt idx="192">
+                  <c:v>21.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="193">
+                  <c:v>16.606999999999999</c:v>
+                </c:pt>
+                <c:pt idx="194">
+                  <c:v>25.856999999999999</c:v>
+                </c:pt>
+                <c:pt idx="195">
+                  <c:v>22.317</c:v>
+                </c:pt>
+                <c:pt idx="196">
+                  <c:v>17.317</c:v>
+                </c:pt>
+                <c:pt idx="197">
+                  <c:v>12.317</c:v>
+                </c:pt>
+                <c:pt idx="198">
+                  <c:v>7.3170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="199">
+                  <c:v>5.3170000000000002</c:v>
+                </c:pt>
+                <c:pt idx="200">
+                  <c:v>0.31700000000000017</c:v>
+                </c:pt>
+                <c:pt idx="201">
+                  <c:v>-4.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="202">
+                  <c:v>-9.6829999999999998</c:v>
+                </c:pt>
+                <c:pt idx="203">
+                  <c:v>-14.683</c:v>
+                </c:pt>
+                <c:pt idx="204">
+                  <c:v>-16.702999999999999</c:v>
+                </c:pt>
+                <c:pt idx="205">
+                  <c:v>-10.702999999999999</c:v>
+                </c:pt>
+                <c:pt idx="206">
+                  <c:v>-15.702999999999999</c:v>
+                </c:pt>
+                <c:pt idx="207">
+                  <c:v>-9.7029999999999994</c:v>
+                </c:pt>
+                <c:pt idx="208">
+                  <c:v>-4.4529999999999994</c:v>
+                </c:pt>
+                <c:pt idx="209">
+                  <c:v>1.8469999999999978</c:v>
+                </c:pt>
+                <c:pt idx="210">
+                  <c:v>1.8469999999999978</c:v>
+                </c:pt>
+                <c:pt idx="211">
+                  <c:v>6.4469999999999974</c:v>
+                </c:pt>
+                <c:pt idx="212">
+                  <c:v>4.4469999999999974</c:v>
+                </c:pt>
+                <c:pt idx="213">
+                  <c:v>-0.5530000000000026</c:v>
+                </c:pt>
+                <c:pt idx="214">
+                  <c:v>-2.5530000000000026</c:v>
+                </c:pt>
+                <c:pt idx="215">
+                  <c:v>4.9469999999999974</c:v>
+                </c:pt>
+                <c:pt idx="216">
+                  <c:v>-5.3000000000002601E-2</c:v>
+                </c:pt>
+                <c:pt idx="217">
+                  <c:v>-5.0530000000000026</c:v>
+                </c:pt>
+                <c:pt idx="218">
+                  <c:v>-0.3030000000000026</c:v>
+                </c:pt>
+                <c:pt idx="219">
+                  <c:v>-5.3030000000000026</c:v>
+                </c:pt>
+                <c:pt idx="220">
+                  <c:v>-6.3030000000000026</c:v>
+                </c:pt>
+                <c:pt idx="221">
+                  <c:v>-11.303000000000003</c:v>
+                </c:pt>
+                <c:pt idx="222">
+                  <c:v>-8.0530000000000026</c:v>
+                </c:pt>
+                <c:pt idx="223">
+                  <c:v>-1.0530000000000026</c:v>
+                </c:pt>
+                <c:pt idx="224">
+                  <c:v>5.1969999999999974</c:v>
+                </c:pt>
+                <c:pt idx="225">
+                  <c:v>0.1969999999999974</c:v>
+                </c:pt>
+                <c:pt idx="226">
+                  <c:v>11.446999999999997</c:v>
+                </c:pt>
+                <c:pt idx="227">
+                  <c:v>6.4469999999999974</c:v>
+                </c:pt>
+                <c:pt idx="228">
+                  <c:v>1.4469999999999974</c:v>
+                </c:pt>
+                <c:pt idx="229">
+                  <c:v>6.4469999999999974</c:v>
+                </c:pt>
+                <c:pt idx="230">
+                  <c:v>11.446999999999997</c:v>
+                </c:pt>
+                <c:pt idx="231">
+                  <c:v>15.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="232">
+                  <c:v>21.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="233">
+                  <c:v>16.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="234">
+                  <c:v>11.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="235">
+                  <c:v>6.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="236">
+                  <c:v>17.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="237">
+                  <c:v>19.796999999999997</c:v>
+                </c:pt>
+                <c:pt idx="238">
+                  <c:v>24.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="239">
+                  <c:v>19.046999999999997</c:v>
+                </c:pt>
+                <c:pt idx="240">
+                  <c:v>18.746999999999996</c:v>
+                </c:pt>
+                <c:pt idx="241">
+                  <c:v>24.246999999999996</c:v>
+                </c:pt>
+                <c:pt idx="242">
+                  <c:v>19.246999999999996</c:v>
+                </c:pt>
+                <c:pt idx="243">
+                  <c:v>22.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="244">
+                  <c:v>17.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="245">
+                  <c:v>12.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="246">
+                  <c:v>7.6469999999999985</c:v>
+                </c:pt>
+                <c:pt idx="247">
+                  <c:v>13.496999999999998</c:v>
+                </c:pt>
+                <c:pt idx="248">
+                  <c:v>8.4969999999999981</c:v>
+                </c:pt>
+                <c:pt idx="249">
+                  <c:v>12.396999999999998</c:v>
+                </c:pt>
+                <c:pt idx="250">
+                  <c:v>7.3969999999999985</c:v>
+                </c:pt>
+                <c:pt idx="251">
+                  <c:v>2.3969999999999985</c:v>
+                </c:pt>
+                <c:pt idx="252">
+                  <c:v>-2.6030000000000015</c:v>
+                </c:pt>
+                <c:pt idx="253">
+                  <c:v>-7.6030000000000015</c:v>
+                </c:pt>
+                <c:pt idx="254">
+                  <c:v>-0.10300000000000153</c:v>
+                </c:pt>
+                <c:pt idx="255">
+                  <c:v>4.8969999999999985</c:v>
+                </c:pt>
+                <c:pt idx="256">
+                  <c:v>-0.10300000000000153</c:v>
+                </c:pt>
+                <c:pt idx="257">
+                  <c:v>-2.6030000000000015</c:v>
+                </c:pt>
+                <c:pt idx="258">
+                  <c:v>-7.6030000000000015</c:v>
+                </c:pt>
+                <c:pt idx="259">
+                  <c:v>0.24699999999999811</c:v>
+                </c:pt>
+                <c:pt idx="260">
+                  <c:v>2.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="261">
+                  <c:v>1.646999999999998</c:v>
+                </c:pt>
+                <c:pt idx="262">
+                  <c:v>0.64699999999999802</c:v>
+                </c:pt>
+                <c:pt idx="263">
+                  <c:v>-4.3530000000000015</c:v>
+                </c:pt>
+                <c:pt idx="264">
+                  <c:v>-9.3530000000000015</c:v>
+                </c:pt>
+                <c:pt idx="265">
+                  <c:v>-11.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="266">
+                  <c:v>-13.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="267">
+                  <c:v>-18.353000000000002</c:v>
+                </c:pt>
+                <c:pt idx="268">
+                  <c:v>-22.833000000000002</c:v>
+                </c:pt>
+                <c:pt idx="269">
+                  <c:v>-25.333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="270">
+                  <c:v>-30.333000000000002</c:v>
+                </c:pt>
+                <c:pt idx="271">
+                  <c:v>-24.520200000000003</c:v>
+                </c:pt>
+                <c:pt idx="272">
+                  <c:v>-16.855200000000004</c:v>
+                </c:pt>
+                <c:pt idx="273">
+                  <c:v>-21.855200000000004</c:v>
+                </c:pt>
+                <c:pt idx="274">
+                  <c:v>-24.855200000000004</c:v>
+                </c:pt>
+                <c:pt idx="275">
+                  <c:v>-29.855200000000004</c:v>
+                </c:pt>
+                <c:pt idx="276">
+                  <c:v>-25.605200000000004</c:v>
+                </c:pt>
+                <c:pt idx="277">
+                  <c:v>-28.585200000000004</c:v>
+                </c:pt>
+                <c:pt idx="278">
+                  <c:v>-33.5852</c:v>
+                </c:pt>
+                <c:pt idx="279">
+                  <c:v>-37.8352</c:v>
+                </c:pt>
+                <c:pt idx="280">
+                  <c:v>-32.8352</c:v>
+                </c:pt>
+                <c:pt idx="281">
+                  <c:v>-35.3352</c:v>
+                </c:pt>
+                <c:pt idx="282">
+                  <c:v>-32.7102</c:v>
+                </c:pt>
+                <c:pt idx="283">
+                  <c:v>-29.4602</c:v>
+                </c:pt>
+                <c:pt idx="284">
+                  <c:v>-34.4602</c:v>
+                </c:pt>
+                <c:pt idx="285">
+                  <c:v>-28.7102</c:v>
+                </c:pt>
+                <c:pt idx="286">
+                  <c:v>-22.7102</c:v>
+                </c:pt>
+                <c:pt idx="287">
+                  <c:v>-27.7102</c:v>
+                </c:pt>
+                <c:pt idx="288">
+                  <c:v>-23.9602</c:v>
+                </c:pt>
+                <c:pt idx="289">
+                  <c:v>-26.8202</c:v>
+                </c:pt>
+                <c:pt idx="290">
+                  <c:v>-21.8202</c:v>
+                </c:pt>
+                <c:pt idx="291">
+                  <c:v>-26.8202</c:v>
+                </c:pt>
+                <c:pt idx="292">
+                  <c:v>-31.8202</c:v>
+                </c:pt>
+                <c:pt idx="293">
+                  <c:v>-26.3202</c:v>
+                </c:pt>
+                <c:pt idx="294">
+                  <c:v>-31.3202</c:v>
+                </c:pt>
+                <c:pt idx="295">
+                  <c:v>-27.5702</c:v>
+                </c:pt>
+                <c:pt idx="296">
+                  <c:v>-32.5702</c:v>
+                </c:pt>
+                <c:pt idx="297">
+                  <c:v>-37.5702</c:v>
+                </c:pt>
+                <c:pt idx="298">
+                  <c:v>-42.5702</c:v>
+                </c:pt>
+                <c:pt idx="299">
+                  <c:v>-47.5702</c:v>
+                </c:pt>
+                <c:pt idx="300">
+                  <c:v>-39.8202</c:v>
+                </c:pt>
+                <c:pt idx="301">
+                  <c:v>-37.0702</c:v>
+                </c:pt>
+                <c:pt idx="302">
+                  <c:v>-34.420200000000001</c:v>
+                </c:pt>
+                <c:pt idx="303">
+                  <c:v>-39.420200000000001</c:v>
+                </c:pt>
+                <c:pt idx="304">
+                  <c:v>-44.420200000000001</c:v>
+                </c:pt>
+                <c:pt idx="305">
+                  <c:v>-38.420200000000001</c:v>
+                </c:pt>
+                <c:pt idx="306">
+                  <c:v>-43.420200000000001</c:v>
+                </c:pt>
+                <c:pt idx="307">
+                  <c:v>-33.670200000000001</c:v>
+                </c:pt>
+                <c:pt idx="308">
+                  <c:v>-38.670200000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4044-F24C-B2FB-348C45D8FED2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="2036993776"/>
+        <c:axId val="2049217344"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="2036993776"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2049217344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2049217344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="fr-FR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2036993776"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="fr-FR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>565150</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>184150</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Graphique 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{372599F5-A848-7A41-B81C-06C7512E49FB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David FLOURIOT" refreshedDate="43598.591453472225" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="306" xr:uid="{230FD7DE-7450-054B-BD00-D762F6369256}">
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="David FLOURIOT" refreshedDate="43599.732718287036" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="310" xr:uid="{230FD7DE-7450-054B-BD00-D762F6369256}">
   <cacheSource type="worksheet">
     <worksheetSource ref="A1:S1048576" sheet="Base"/>
   </cacheSource>
   <cacheFields count="19">
     <cacheField name="Numéro" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="249"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" containsInteger="1" minValue="1" maxValue="253"/>
     </cacheField>
     <cacheField name="Site" numFmtId="0">
       <sharedItems containsBlank="1"/>
@@ -1135,7 +2921,7 @@
       <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-10.18" maxValue="27"/>
     </cacheField>
     <cacheField name="Gain cumulé" numFmtId="0">
-      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-47.35" maxValue="32.506999999999998"/>
+      <sharedItems containsString="0" containsBlank="1" containsNumber="1" minValue="-47.5702" maxValue="32.506999999999998"/>
     </cacheField>
   </cacheFields>
   <extLst>
@@ -1147,7 +2933,7 @@
 </file>
 
 <file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="306">
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="310">
   <r>
     <n v="1"/>
     <s v="Betclic"/>
@@ -6378,6 +8164,90 @@
     <n v="8.4969999999999981"/>
   </r>
   <r>
+    <n v="250"/>
+    <s v="Betclic"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <s v="Boulogne"/>
+    <s v="Parme"/>
+    <n v="1.78"/>
+    <n v="5"/>
+    <n v="1"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="8.9"/>
+    <n v="5"/>
+    <n v="8.9"/>
+    <n v="3.9000000000000004"/>
+    <n v="12.396999999999998"/>
+  </r>
+  <r>
+    <n v="251"/>
+    <s v="Betclic"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Fritz"/>
+    <s v="Pella"/>
+    <n v="2.0499999999999998"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <n v="7.3969999999999985"/>
+  </r>
+  <r>
+    <n v="252"/>
+    <s v="Betclic"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Albot"/>
+    <s v="Paire"/>
+    <n v="2.1"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <n v="2.3969999999999985"/>
+  </r>
+  <r>
+    <n v="253"/>
+    <s v="Betclic"/>
+    <x v="3"/>
+    <x v="0"/>
+    <n v="0"/>
+    <x v="0"/>
+    <x v="1"/>
+    <s v="Zverev"/>
+    <s v="Berrettini"/>
+    <n v="2.2999999999999998"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <n v="-2.6030000000000015"/>
+  </r>
+  <r>
     <n v="1"/>
     <s v="Winamax"/>
     <x v="2"/>
@@ -6396,7 +8266,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="3.4969999999999981"/>
+    <n v="-7.6030000000000015"/>
   </r>
   <r>
     <n v="2"/>
@@ -6417,7 +8287,7 @@
     <n v="5"/>
     <n v="12.5"/>
     <n v="7.5"/>
-    <n v="10.996999999999998"/>
+    <n v="-0.10300000000000153"/>
   </r>
   <r>
     <n v="3"/>
@@ -6438,7 +8308,7 @@
     <n v="5"/>
     <n v="10"/>
     <n v="5"/>
-    <n v="15.996999999999998"/>
+    <n v="4.8969999999999985"/>
   </r>
   <r>
     <n v="4"/>
@@ -6459,7 +8329,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="10.996999999999998"/>
+    <n v="-0.10300000000000153"/>
   </r>
   <r>
     <n v="5"/>
@@ -6480,7 +8350,7 @@
     <n v="2.5"/>
     <n v="0"/>
     <n v="-2.5"/>
-    <n v="8.4969999999999981"/>
+    <n v="-2.6030000000000015"/>
   </r>
   <r>
     <n v="6"/>
@@ -6501,7 +8371,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="3.4969999999999981"/>
+    <n v="-7.6030000000000015"/>
   </r>
   <r>
     <n v="7"/>
@@ -6522,7 +8392,7 @@
     <n v="5"/>
     <n v="12.85"/>
     <n v="7.85"/>
-    <n v="11.346999999999998"/>
+    <n v="0.24699999999999811"/>
   </r>
   <r>
     <n v="8"/>
@@ -6543,7 +8413,7 @@
     <n v="1"/>
     <n v="3.4"/>
     <n v="2.4"/>
-    <n v="13.746999999999998"/>
+    <n v="2.646999999999998"/>
   </r>
   <r>
     <n v="9"/>
@@ -6564,7 +8434,7 @@
     <n v="1"/>
     <n v="0"/>
     <n v="-1"/>
-    <n v="12.746999999999998"/>
+    <n v="1.646999999999998"/>
   </r>
   <r>
     <n v="10"/>
@@ -6585,7 +8455,7 @@
     <n v="1"/>
     <n v="0"/>
     <n v="-1"/>
-    <n v="11.746999999999998"/>
+    <n v="0.64699999999999802"/>
   </r>
   <r>
     <n v="11"/>
@@ -6606,7 +8476,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="6.7469999999999981"/>
+    <n v="-4.3530000000000015"/>
   </r>
   <r>
     <n v="12"/>
@@ -6627,7 +8497,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="1.7469999999999981"/>
+    <n v="-9.3530000000000015"/>
   </r>
   <r>
     <n v="13"/>
@@ -6648,7 +8518,7 @@
     <n v="2"/>
     <n v="0"/>
     <n v="-2"/>
-    <n v="-0.25300000000000189"/>
+    <n v="-11.353000000000002"/>
   </r>
   <r>
     <n v="14"/>
@@ -6669,7 +8539,7 @@
     <n v="2"/>
     <n v="0"/>
     <n v="-2"/>
-    <n v="-2.2530000000000019"/>
+    <n v="-13.353000000000002"/>
   </r>
   <r>
     <n v="15"/>
@@ -6690,7 +8560,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-7.2530000000000019"/>
+    <n v="-18.353000000000002"/>
   </r>
   <r>
     <n v="16"/>
@@ -6711,7 +8581,7 @@
     <n v="4.4800000000000004"/>
     <n v="0"/>
     <n v="-4.4800000000000004"/>
-    <n v="-11.733000000000002"/>
+    <n v="-22.833000000000002"/>
   </r>
   <r>
     <n v="17"/>
@@ -6732,7 +8602,7 @@
     <n v="2.5"/>
     <n v="0"/>
     <n v="-2.5"/>
-    <n v="-14.233000000000002"/>
+    <n v="-25.333000000000002"/>
   </r>
   <r>
     <n v="18"/>
@@ -6753,7 +8623,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-19.233000000000004"/>
+    <n v="-30.333000000000002"/>
   </r>
   <r>
     <n v="19"/>
@@ -6774,7 +8644,7 @@
     <n v="5.19"/>
     <n v="11.002800000000001"/>
     <n v="5.8128000000000002"/>
-    <n v="-13.420200000000005"/>
+    <n v="-24.520200000000003"/>
   </r>
   <r>
     <n v="20"/>
@@ -6795,7 +8665,7 @@
     <n v="2.19"/>
     <n v="9.8550000000000004"/>
     <n v="7.6650000000000009"/>
-    <n v="-5.7552000000000039"/>
+    <n v="-16.855200000000004"/>
   </r>
   <r>
     <n v="21"/>
@@ -6816,7 +8686,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-10.755200000000004"/>
+    <n v="-21.855200000000004"/>
   </r>
   <r>
     <n v="22"/>
@@ -6837,7 +8707,7 @@
     <n v="3"/>
     <n v="0"/>
     <n v="-3"/>
-    <n v="-13.755200000000004"/>
+    <n v="-24.855200000000004"/>
   </r>
   <r>
     <n v="23"/>
@@ -6858,7 +8728,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-18.755200000000002"/>
+    <n v="-29.855200000000004"/>
   </r>
   <r>
     <n v="24"/>
@@ -6879,7 +8749,7 @@
     <n v="5"/>
     <n v="9.25"/>
     <n v="4.25"/>
-    <n v="-14.505200000000002"/>
+    <n v="-25.605200000000004"/>
   </r>
   <r>
     <n v="25"/>
@@ -6900,7 +8770,7 @@
     <n v="2.98"/>
     <n v="0"/>
     <n v="-2.98"/>
-    <n v="-17.485200000000003"/>
+    <n v="-28.585200000000004"/>
   </r>
   <r>
     <n v="26"/>
@@ -6921,7 +8791,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-22.485200000000003"/>
+    <n v="-33.5852"/>
   </r>
   <r>
     <n v="27"/>
@@ -6942,7 +8812,7 @@
     <n v="4.25"/>
     <n v="0"/>
     <n v="-4.25"/>
-    <n v="-26.735200000000003"/>
+    <n v="-37.8352"/>
   </r>
   <r>
     <n v="28"/>
@@ -6963,7 +8833,7 @@
     <n v="10"/>
     <n v="15"/>
     <n v="5"/>
-    <n v="-21.735200000000003"/>
+    <n v="-32.8352"/>
   </r>
   <r>
     <n v="29"/>
@@ -6984,7 +8854,7 @@
     <n v="2.5"/>
     <n v="0"/>
     <n v="-2.5"/>
-    <n v="-24.235200000000003"/>
+    <n v="-35.3352"/>
   </r>
   <r>
     <n v="30"/>
@@ -7005,7 +8875,7 @@
     <n v="2.5"/>
     <n v="5.125"/>
     <n v="2.625"/>
-    <n v="-21.610200000000003"/>
+    <n v="-32.7102"/>
   </r>
   <r>
     <n v="31"/>
@@ -7026,7 +8896,7 @@
     <n v="5"/>
     <n v="8.25"/>
     <n v="3.25"/>
-    <n v="-18.360200000000003"/>
+    <n v="-29.4602"/>
   </r>
   <r>
     <n v="32"/>
@@ -7047,7 +8917,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-23.360200000000003"/>
+    <n v="-34.4602"/>
   </r>
   <r>
     <n v="33"/>
@@ -7068,7 +8938,7 @@
     <n v="5"/>
     <n v="10.75"/>
     <n v="5.75"/>
-    <n v="-17.610200000000003"/>
+    <n v="-28.7102"/>
   </r>
   <r>
     <n v="34"/>
@@ -7089,7 +8959,7 @@
     <n v="5"/>
     <n v="11"/>
     <n v="6"/>
-    <n v="-11.610200000000003"/>
+    <n v="-22.7102"/>
   </r>
   <r>
     <n v="35"/>
@@ -7110,7 +8980,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-16.610200000000003"/>
+    <n v="-27.7102"/>
   </r>
   <r>
     <n v="36"/>
@@ -7131,7 +9001,7 @@
     <n v="5"/>
     <n v="8.75"/>
     <n v="3.75"/>
-    <n v="-12.860200000000003"/>
+    <n v="-23.9602"/>
   </r>
   <r>
     <n v="37"/>
@@ -7152,7 +9022,7 @@
     <n v="5"/>
     <n v="2.14"/>
     <n v="-2.86"/>
-    <n v="-15.720200000000002"/>
+    <n v="-26.8202"/>
   </r>
   <r>
     <n v="38"/>
@@ -7173,7 +9043,7 @@
     <n v="5"/>
     <n v="10"/>
     <n v="5"/>
-    <n v="-10.720200000000002"/>
+    <n v="-21.8202"/>
   </r>
   <r>
     <n v="39"/>
@@ -7194,7 +9064,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-15.720200000000002"/>
+    <n v="-26.8202"/>
   </r>
   <r>
     <n v="40"/>
@@ -7215,7 +9085,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-20.720200000000002"/>
+    <n v="-31.8202"/>
   </r>
   <r>
     <n v="41"/>
@@ -7236,7 +9106,7 @@
     <n v="5"/>
     <n v="10.5"/>
     <n v="5.5"/>
-    <n v="-15.220200000000002"/>
+    <n v="-26.3202"/>
   </r>
   <r>
     <n v="42"/>
@@ -7257,7 +9127,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-20.220200000000002"/>
+    <n v="-31.3202"/>
   </r>
   <r>
     <n v="43"/>
@@ -7278,7 +9148,7 @@
     <n v="5"/>
     <n v="8.75"/>
     <n v="3.75"/>
-    <n v="-16.470200000000002"/>
+    <n v="-27.5702"/>
   </r>
   <r>
     <n v="44"/>
@@ -7299,7 +9169,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-21.470200000000002"/>
+    <n v="-32.5702"/>
   </r>
   <r>
     <n v="45"/>
@@ -7320,7 +9190,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-26.470200000000002"/>
+    <n v="-37.5702"/>
   </r>
   <r>
     <n v="46"/>
@@ -7341,7 +9211,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-31.470200000000002"/>
+    <n v="-42.5702"/>
   </r>
   <r>
     <n v="47"/>
@@ -7362,7 +9232,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-36.470200000000006"/>
+    <n v="-47.5702"/>
   </r>
   <r>
     <n v="48"/>
@@ -7383,7 +9253,7 @@
     <n v="5"/>
     <n v="12.75"/>
     <n v="7.75"/>
-    <n v="-28.720200000000006"/>
+    <n v="-39.8202"/>
   </r>
   <r>
     <n v="49"/>
@@ -7404,7 +9274,7 @@
     <n v="5"/>
     <n v="7.75"/>
     <n v="2.75"/>
-    <n v="-25.970200000000006"/>
+    <n v="-37.0702"/>
   </r>
   <r>
     <n v="50"/>
@@ -7425,7 +9295,7 @@
     <n v="5"/>
     <n v="7.65"/>
     <n v="2.6500000000000004"/>
-    <n v="-23.320200000000007"/>
+    <n v="-34.420200000000001"/>
   </r>
   <r>
     <n v="51"/>
@@ -7446,7 +9316,7 @@
     <n v="5"/>
     <n v="0"/>
     <n v="-5"/>
-    <n v="-28.320200000000007"/>
+    <n v="-39.420200000000001"/>
   </r>
   <r>
     <n v="52"/>
@@ -7460,14 +9330,14 @@
     <s v="Fognini"/>
     <n v="3"/>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="15"/>
-    <n v="5"/>
-    <n v="15"/>
-    <n v="10"/>
-    <n v="-18.320200000000007"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <n v="-44.420200000000001"/>
   </r>
   <r>
     <n v="53"/>
@@ -7488,7 +9358,7 @@
     <n v="5"/>
     <n v="11"/>
     <n v="6"/>
-    <n v="-12.320200000000007"/>
+    <n v="-38.420200000000001"/>
   </r>
   <r>
     <n v="54"/>
@@ -7502,14 +9372,14 @@
     <s v="Chardy"/>
     <n v="2.2200000000000002"/>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="11.100000000000001"/>
-    <n v="5"/>
-    <n v="11.100000000000001"/>
-    <n v="6.1000000000000014"/>
-    <n v="-6.2202000000000055"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <n v="-43.420200000000001"/>
   </r>
   <r>
     <n v="55"/>
@@ -7530,7 +9400,7 @@
     <n v="5"/>
     <n v="14.75"/>
     <n v="9.75"/>
-    <n v="3.5297999999999945"/>
+    <n v="-33.670200000000001"/>
   </r>
   <r>
     <n v="56"/>
@@ -7544,14 +9414,14 @@
     <s v="Khachanov"/>
     <n v="2.15"/>
     <n v="5"/>
-    <n v="1"/>
-    <n v="1"/>
-    <n v="0"/>
-    <n v="10.75"/>
-    <n v="5"/>
-    <n v="10.75"/>
-    <n v="5.75"/>
-    <n v="9.2797999999999945"/>
+    <n v="0"/>
+    <n v="1"/>
+    <n v="0"/>
+    <n v="0"/>
+    <n v="5"/>
+    <n v="0"/>
+    <n v="-5"/>
+    <n v="-38.670200000000001"/>
   </r>
   <r>
     <m/>
@@ -7578,7 +9448,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AC52A11-B78A-C643-B644-CE492890DE11}" name="Tableau croisé dynamique1" cacheId="20" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{2AC52A11-B78A-C643-B644-CE492890DE11}" name="Tableau croisé dynamique1" cacheId="26" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Valeurs" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="A4:E22" firstHeaderRow="0" firstDataRow="1" firstDataCol="1" rowPageCount="1" colPageCount="1"/>
   <pivotFields count="19">
     <pivotField showAll="0"/>
@@ -8034,8 +9904,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31B7B9DE-D11C-F442-8261-A2CB7B09CB3E}">
   <dimension ref="A2:E22"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -8180,16 +10050,16 @@
         <v>292</v>
       </c>
       <c r="B11" s="1">
-        <v>17.189799999999991</v>
+        <v>-30.760200000000005</v>
       </c>
       <c r="C11" s="1">
-        <v>1350.3298</v>
+        <v>1322.3797999999999</v>
       </c>
       <c r="D11" s="1">
-        <v>1333.14</v>
+        <v>1353.14</v>
       </c>
       <c r="E11" s="1">
-        <v>1353.3298</v>
+        <v>1325.3797999999999</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -8231,16 +10101,16 @@
         <v>11</v>
       </c>
       <c r="B14" s="1">
-        <v>47.929799999999993</v>
+        <v>-2.0200000000004437E-2</v>
       </c>
       <c r="C14" s="1">
-        <v>1296.0698</v>
+        <v>1268.1197999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>1248.1400000000001</v>
+        <v>1268.1400000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>1299.0698</v>
+        <v>1271.1197999999999</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -8248,16 +10118,16 @@
         <v>1</v>
       </c>
       <c r="B15" s="1">
-        <v>-4.7680000000000096</v>
+        <v>-0.86800000000001098</v>
       </c>
       <c r="C15" s="1">
-        <v>795.59199999999987</v>
+        <v>804.49199999999985</v>
       </c>
       <c r="D15" s="1">
-        <v>800.36000000000013</v>
+        <v>805.36000000000013</v>
       </c>
       <c r="E15" s="1">
-        <v>796.59199999999987</v>
+        <v>805.49199999999985</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
@@ -8299,16 +10169,16 @@
         <v>8</v>
       </c>
       <c r="B18" s="1">
-        <v>64.697800000000001</v>
+        <v>12.847800000000007</v>
       </c>
       <c r="C18" s="1">
-        <v>500.47780000000006</v>
+        <v>463.62780000000004</v>
       </c>
       <c r="D18" s="1">
-        <v>435.78</v>
+        <v>450.78</v>
       </c>
       <c r="E18" s="1">
-        <v>502.47780000000006</v>
+        <v>465.62780000000004</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
@@ -8343,16 +10213,16 @@
         <v>302</v>
       </c>
       <c r="B22" s="1">
-        <v>9.2797999999999874</v>
+        <v>-38.670200000000008</v>
       </c>
       <c r="C22" s="1">
-        <v>1388.7798</v>
+        <v>1360.8298</v>
       </c>
       <c r="D22" s="1">
-        <v>1379.5</v>
+        <v>1399.5</v>
       </c>
       <c r="E22" s="1">
-        <v>1391.7798</v>
+        <v>1363.8298</v>
       </c>
     </row>
   </sheetData>
@@ -8364,7 +10234,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C41F9641-8291-FA48-BB5F-C7226A697936}">
   <dimension ref="A1:S310"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A255" workbookViewId="0">
       <selection activeCell="S310" sqref="S310"/>
     </sheetView>
   </sheetViews>
@@ -28091,5 +29961,6 @@
     <sortCondition ref="A2:A299"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>